--- a/Results/MultivModels_DOnsetMin#0#Max#10_AgeMin#30#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/Parameters_model#LR_name#BM.xlsx
+++ b/Results/MultivModels_DOnsetMin#0#Max#10_AgeMin#30#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/Parameters_model#LR_name#BM.xlsx
@@ -408,16 +408,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-0.310393620064036</v>
+        <v>-0.1510832966020607</v>
       </c>
       <c r="C2">
-        <v>0.66321221264855</v>
+        <v>0.2576346857136043</v>
       </c>
       <c r="D2">
-        <v>0.471888619662785</v>
+        <v>0.2492368316395192</v>
       </c>
       <c r="E2">
-        <v>0.1678941046705379</v>
+        <v>0.1628478577260761</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -425,16 +425,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.002803342333316887</v>
+        <v>-0.1302258143344396</v>
       </c>
       <c r="C3">
-        <v>0.004913222076258809</v>
+        <v>0.3029247576921702</v>
       </c>
       <c r="D3">
-        <v>0.004310624366363391</v>
+        <v>0.1924466961300037</v>
       </c>
       <c r="E3">
-        <v>0.00321509079455097</v>
+        <v>0.1096695891917376</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -442,16 +442,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.1405140560523806</v>
+        <v>-0.4937712444677119</v>
       </c>
       <c r="C4">
-        <v>0.2994761337648991</v>
+        <v>1.280699105375526</v>
       </c>
       <c r="D4">
-        <v>0.1908144456397661</v>
+        <v>0.4406286756672134</v>
       </c>
       <c r="E4">
-        <v>0.141767651813879</v>
+        <v>-0.01492195199042581</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -459,16 +459,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.02349146722582085</v>
+        <v>-0.02051383648487269</v>
       </c>
       <c r="C5">
-        <v>0.0526520894382867</v>
+        <v>0.0379361625745974</v>
       </c>
       <c r="D5">
-        <v>0.03115681419726999</v>
+        <v>0.03471417589155983</v>
       </c>
       <c r="E5">
-        <v>0.02022350610642909</v>
+        <v>0.03090340852159871</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -476,16 +476,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.4912862246378023</v>
+        <v>-0.1706594919902991</v>
       </c>
       <c r="C6">
-        <v>1.142199648169414</v>
+        <v>0.3080757601388209</v>
       </c>
       <c r="D6">
-        <v>0.7666589724595084</v>
+        <v>0.2601561318646982</v>
       </c>
       <c r="E6">
-        <v>-0.03092139751369063</v>
+        <v>0.1349339473373267</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -493,16 +493,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-0.1529754386591715</v>
+        <v>-0.5083457702890256</v>
       </c>
       <c r="C7">
-        <v>0.2941993427630467</v>
+        <v>1.008623204073021</v>
       </c>
       <c r="D7">
-        <v>0.2270286509791825</v>
+        <v>0.7879412482355823</v>
       </c>
       <c r="E7">
-        <v>0.1485831694873664</v>
+        <v>0.231834128999216</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -510,16 +510,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.00260027347167864</v>
+        <v>-0.2785538514248859</v>
       </c>
       <c r="C8">
-        <v>0.005028707995591843</v>
+        <v>0.7248254021401487</v>
       </c>
       <c r="D8">
-        <v>0.003939148787643154</v>
+        <v>0.4505466796858522</v>
       </c>
       <c r="E8">
-        <v>0.002908820540098662</v>
+        <v>0.08083413650149811</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -527,16 +527,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-0.002234653498460302</v>
+        <v>-0.002877933754492389</v>
       </c>
       <c r="C9">
-        <v>0.00489206437243752</v>
+        <v>0.004746908684254834</v>
       </c>
       <c r="D9">
-        <v>0.003540001801516879</v>
+        <v>0.004326321148543383</v>
       </c>
       <c r="E9">
-        <v>0.002418792673654421</v>
+        <v>0.00363701010583338</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -544,16 +544,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-0.003019414098069657</v>
+        <v>-0.2617003303304086</v>
       </c>
       <c r="C10">
-        <v>0.005930864474891431</v>
+        <v>0.5099572889612315</v>
       </c>
       <c r="D10">
-        <v>0.003611809026170931</v>
+        <v>0.4881935193822402</v>
       </c>
       <c r="E10">
-        <v>0.002990614505943463</v>
+        <v>0.1786087169137062</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -561,16 +561,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-0.02996959219363558</v>
+        <v>-0.1343049804920905</v>
       </c>
       <c r="C11">
-        <v>0.04624917909012804</v>
+        <v>0.2707392959345971</v>
       </c>
       <c r="D11">
-        <v>0.0468360644269918</v>
+        <v>0.2281127741294542</v>
       </c>
       <c r="E11">
-        <v>0.03017454293633407</v>
+        <v>0.129524154341891</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -578,16 +578,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-0.118402840686888</v>
+        <v>-0.3911416855893469</v>
       </c>
       <c r="C12">
-        <v>0.2793481515187533</v>
+        <v>0.8882499209088138</v>
       </c>
       <c r="D12">
-        <v>0.1883240314672643</v>
+        <v>0.5503488831348213</v>
       </c>
       <c r="E12">
-        <v>0.1156486403148972</v>
+        <v>0.112314348151356</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -595,16 +595,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-0.4318731658341604</v>
+        <v>-0.002180541039351643</v>
       </c>
       <c r="C13">
-        <v>0.9256403257951891</v>
+        <v>0.004301394649512054</v>
       </c>
       <c r="D13">
-        <v>0.5041871522169753</v>
+        <v>0.004038101266505928</v>
       </c>
       <c r="E13">
-        <v>0.1767717341172644</v>
+        <v>0.002540231861235154</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -612,16 +612,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-0.003037855324921738</v>
+        <v>-0.002968350599948115</v>
       </c>
       <c r="C14">
-        <v>0.005349278793964484</v>
+        <v>0.00549864920485543</v>
       </c>
       <c r="D14">
-        <v>0.004668293561452519</v>
+        <v>0.004202651956255847</v>
       </c>
       <c r="E14">
-        <v>0.002666404515724218</v>
+        <v>0.002872197330778853</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -629,16 +629,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-0.3825079143157318</v>
+        <v>-0.2989309204999238</v>
       </c>
       <c r="C15">
-        <v>0.7763660541797253</v>
+        <v>0.6679557736600973</v>
       </c>
       <c r="D15">
-        <v>0.4670798917746647</v>
+        <v>0.4502092045017258</v>
       </c>
       <c r="E15">
-        <v>0.3408434312818751</v>
+        <v>0.09620050860258003</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -646,16 +646,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-0.164295661586545</v>
+        <v>-0.002372356227373556</v>
       </c>
       <c r="C16">
-        <v>0.3439987258601661</v>
+        <v>0.005063212252748471</v>
       </c>
       <c r="D16">
-        <v>0.1688204351684303</v>
+        <v>0.003429869865934389</v>
       </c>
       <c r="E16">
-        <v>0.1714588822888626</v>
+        <v>0.002744398913089017</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -663,16 +663,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-0.1650229114681161</v>
+        <v>-0.02518706257317333</v>
       </c>
       <c r="C17">
-        <v>0.3493924580916012</v>
+        <v>0.04036945186688864</v>
       </c>
       <c r="D17">
-        <v>0.1964410551788475</v>
+        <v>0.04276817606151751</v>
       </c>
       <c r="E17">
-        <v>0.1288343673408802</v>
+        <v>0.03098866211321859</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -680,16 +680,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-0.6598281226828191</v>
+        <v>-0.002618714158489987</v>
       </c>
       <c r="C18">
-        <v>1.27301345800173</v>
+        <v>0.004489110347817854</v>
       </c>
       <c r="D18">
-        <v>0.639471258458494</v>
+        <v>0.004255546668559351</v>
       </c>
       <c r="E18">
-        <v>0.1779532906950393</v>
+        <v>0.003366788514032287</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -697,16 +697,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-0.1419507358983697</v>
+        <v>-0.4308549057371894</v>
       </c>
       <c r="C19">
-        <v>0.2745538087927528</v>
+        <v>0.9527222199107193</v>
       </c>
       <c r="D19">
-        <v>0.2358705168831295</v>
+        <v>0.6942165599680851</v>
       </c>
       <c r="E19">
-        <v>0.1294093954474405</v>
+        <v>0.2095845321035973</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -714,16 +714,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-0.4816173900360208</v>
+        <v>-0.002438420748890016</v>
       </c>
       <c r="C20">
-        <v>1.043826690842337</v>
+        <v>0.004168484136055134</v>
       </c>
       <c r="D20">
-        <v>0.573457864621838</v>
+        <v>0.004310984141660805</v>
       </c>
       <c r="E20">
-        <v>0.2797987423725172</v>
+        <v>0.003185570427295926</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -731,16 +731,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-0.3068877873616507</v>
+        <v>-0.002557791945107203</v>
       </c>
       <c r="C21">
-        <v>0.6107850623998783</v>
+        <v>0.004740355489367461</v>
       </c>
       <c r="D21">
-        <v>0.4584754105080234</v>
+        <v>0.004003282779026665</v>
       </c>
       <c r="E21">
-        <v>0.211040659482146</v>
+        <v>0.003150119808913934</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -748,16 +748,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-0.4080674121142338</v>
+        <v>-0.3446623535019634</v>
       </c>
       <c r="C22">
-        <v>0.8543536453073985</v>
+        <v>0.9137200654664235</v>
       </c>
       <c r="D22">
-        <v>0.7143924114673883</v>
+        <v>0.391924325428576</v>
       </c>
       <c r="E22">
-        <v>0.1685873178608869</v>
+        <v>0.03425417792237644</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -765,16 +765,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-0.6456942392727121</v>
+        <v>-0.4453959203583522</v>
       </c>
       <c r="C23">
-        <v>1.080939627653507</v>
+        <v>1.042814791585183</v>
       </c>
       <c r="D23">
-        <v>0.91411301225023</v>
+        <v>0.7108827822488301</v>
       </c>
       <c r="E23">
-        <v>0.2139008047069669</v>
+        <v>0.05424502774718634</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -782,16 +782,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-0.002268070230716916</v>
+        <v>-0.002215693114357417</v>
       </c>
       <c r="C24">
-        <v>0.004154439716627357</v>
+        <v>0.00453698446704626</v>
       </c>
       <c r="D24">
-        <v>0.00427280364639067</v>
+        <v>0.003736609504965458</v>
       </c>
       <c r="E24">
-        <v>0.002728201015148835</v>
+        <v>0.002726867840748871</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -799,16 +799,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-0.002570624640225497</v>
+        <v>-0.002460588551032504</v>
       </c>
       <c r="C25">
-        <v>0.004556631791331311</v>
+        <v>0.004037684249768733</v>
       </c>
       <c r="D25">
-        <v>0.0044468587976969</v>
+        <v>0.004678351618491797</v>
       </c>
       <c r="E25">
-        <v>0.002849518419055156</v>
+        <v>0.002895917391573649</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -816,16 +816,16 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>-0.1387948692508222</v>
+        <v>-0.3944299677676003</v>
       </c>
       <c r="C26">
-        <v>0.2857901593794461</v>
+        <v>0.7086883431409584</v>
       </c>
       <c r="D26">
-        <v>0.2294307517386799</v>
+        <v>0.5157725198838522</v>
       </c>
       <c r="E26">
-        <v>0.117742141294252</v>
+        <v>0.1996625822726123</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -833,16 +833,16 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-0.002592965021129063</v>
+        <v>-0.47782434198277</v>
       </c>
       <c r="C27">
-        <v>0.004627159305128969</v>
+        <v>0.846766060851028</v>
       </c>
       <c r="D27">
-        <v>0.003873505853907652</v>
+        <v>0.7730270575660998</v>
       </c>
       <c r="E27">
-        <v>0.003562470524344276</v>
+        <v>0.2779824436964974</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -850,16 +850,16 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>-0.003496536659316117</v>
+        <v>-0.4862378850217235</v>
       </c>
       <c r="C28">
-        <v>0.005767172296045293</v>
+        <v>0.8493898673888282</v>
       </c>
       <c r="D28">
-        <v>0.004430108813735342</v>
+        <v>0.9072560077900236</v>
       </c>
       <c r="E28">
-        <v>0.003646129084878453</v>
+        <v>0.1210912107154874</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -867,16 +867,16 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>-0.4643921590221781</v>
+        <v>-0.3101520012500971</v>
       </c>
       <c r="C29">
-        <v>0.875058882180062</v>
+        <v>0.6732457507740023</v>
       </c>
       <c r="D29">
-        <v>0.5129769551367903</v>
+        <v>0.401637052665906</v>
       </c>
       <c r="E29">
-        <v>0.2938072323481428</v>
+        <v>0.2013302598962271</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -884,16 +884,16 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>-0.1117199340342724</v>
+        <v>-0.002284527192730403</v>
       </c>
       <c r="C30">
-        <v>0.2232553059090759</v>
+        <v>0.004642826278464057</v>
       </c>
       <c r="D30">
-        <v>0.2382333247498281</v>
+        <v>0.003988250435771227</v>
       </c>
       <c r="E30">
-        <v>0.1189639255444995</v>
+        <v>0.002414777831501357</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -901,16 +901,16 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>-0.002543858382021469</v>
+        <v>-0.503355203033974</v>
       </c>
       <c r="C31">
-        <v>0.004379160592463282</v>
+        <v>1.114865417380151</v>
       </c>
       <c r="D31">
-        <v>0.004059365251834309</v>
+        <v>0.7115744636536844</v>
       </c>
       <c r="E31">
-        <v>0.003540008300300014</v>
+        <v>0.06355871455408407</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -918,16 +918,16 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>-0.1629434695908478</v>
+        <v>-0.39574544708773</v>
       </c>
       <c r="C32">
-        <v>0.3372028362955032</v>
+        <v>0.886318662713897</v>
       </c>
       <c r="D32">
-        <v>0.1811828172241607</v>
+        <v>0.3823886089125153</v>
       </c>
       <c r="E32">
-        <v>0.1472663235958916</v>
+        <v>0.3386669679923577</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -935,16 +935,16 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>-0.4834849164366404</v>
+        <v>-0.3995218470539155</v>
       </c>
       <c r="C33">
-        <v>1.084034618802558</v>
+        <v>0.7753861427668809</v>
       </c>
       <c r="D33">
-        <v>0.7687797331015415</v>
+        <v>0.611544180096065</v>
       </c>
       <c r="E33">
-        <v>0.06953700839594351</v>
+        <v>0.2201151579494193</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -952,16 +952,16 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>-0.002649120421735283</v>
+        <v>-0.002442568434751712</v>
       </c>
       <c r="C34">
-        <v>0.004648853253359371</v>
+        <v>0.004483054051514408</v>
       </c>
       <c r="D34">
-        <v>0.004341433962466095</v>
+        <v>0.004087387833264295</v>
       </c>
       <c r="E34">
-        <v>0.003113421893561921</v>
+        <v>0.003071854760452754</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -969,16 +969,16 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>-0.1374390039691429</v>
+        <v>-0.3028628806572738</v>
       </c>
       <c r="C35">
-        <v>0.2991507425294048</v>
+        <v>0.5706347569744031</v>
       </c>
       <c r="D35">
-        <v>0.202071847426697</v>
+        <v>0.43177674004906</v>
       </c>
       <c r="E35">
-        <v>0.1222398276710147</v>
+        <v>0.3117950989840544</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -986,16 +986,16 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>-0.002183122396365944</v>
+        <v>-0.1886161471201657</v>
       </c>
       <c r="C36">
-        <v>0.003941401835613255</v>
+        <v>0.3265528906407597</v>
       </c>
       <c r="D36">
-        <v>0.003915996285696884</v>
+        <v>0.221289137867303</v>
       </c>
       <c r="E36">
-        <v>0.0031868299142098</v>
+        <v>0.1897912861146011</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1003,16 +1003,16 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>-0.4563935008174472</v>
+        <v>-0.297817683819896</v>
       </c>
       <c r="C37">
-        <v>1.003939920744555</v>
+        <v>0.563649599494554</v>
       </c>
       <c r="D37">
-        <v>0.3823421141412764</v>
+        <v>0.3901061912308702</v>
       </c>
       <c r="E37">
-        <v>0.2714331185862908</v>
+        <v>0.3442880920814929</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1020,16 +1020,16 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>-0.002126493658813017</v>
+        <v>-0.2571787923205682</v>
       </c>
       <c r="C38">
-        <v>0.004415893479460558</v>
+        <v>0.5871029200271083</v>
       </c>
       <c r="D38">
-        <v>0.004082135614500173</v>
+        <v>0.4639497793661124</v>
       </c>
       <c r="E38">
-        <v>0.002027674144576673</v>
+        <v>0.106992379386544</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1037,16 +1037,16 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>-0.02362816598804605</v>
+        <v>-0.3904504557800097</v>
       </c>
       <c r="C39">
-        <v>0.05119967554676402</v>
+        <v>0.770985644333231</v>
       </c>
       <c r="D39">
-        <v>0.03589355183352737</v>
+        <v>0.4322437938272594</v>
       </c>
       <c r="E39">
-        <v>0.0166065950382661</v>
+        <v>0.3636550683197753</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1054,16 +1054,16 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>-0.3004577773332512</v>
+        <v>-0.1553820525000268</v>
       </c>
       <c r="C40">
-        <v>0.773025769812356</v>
+        <v>0.2950361355056471</v>
       </c>
       <c r="D40">
-        <v>0.3141395422174576</v>
+        <v>0.2012627738027586</v>
       </c>
       <c r="E40">
-        <v>0.2598936947517878</v>
+        <v>0.1799390998083266</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1071,16 +1071,16 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>-0.00306207823635806</v>
+        <v>-0.1212039085734629</v>
       </c>
       <c r="C41">
-        <v>0.005233170382358591</v>
+        <v>0.2688453255270961</v>
       </c>
       <c r="D41">
-        <v>0.00421631627977026</v>
+        <v>0.2156962023905432</v>
       </c>
       <c r="E41">
-        <v>0.003583335769736943</v>
+        <v>0.1045580892322922</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1088,16 +1088,16 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>-0.01914096711448835</v>
+        <v>-0.002377518910706187</v>
       </c>
       <c r="C42">
-        <v>0.04388749268387306</v>
+        <v>0.005040150908824289</v>
       </c>
       <c r="D42">
-        <v>0.03245288122522948</v>
+        <v>0.003700605259192944</v>
       </c>
       <c r="E42">
-        <v>0.02030111424338134</v>
+        <v>0.002422771750685677</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1105,16 +1105,16 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>-0.3622977783070007</v>
+        <v>-0.003135286923177823</v>
       </c>
       <c r="C43">
-        <v>0.766355185883372</v>
+        <v>0.004599817674859325</v>
       </c>
       <c r="D43">
-        <v>0.8025253572481731</v>
+        <v>0.005119533406797088</v>
       </c>
       <c r="E43">
-        <v>0.07051516023359275</v>
+        <v>0.003457885319502057</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1122,16 +1122,16 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>-0.1491646552687736</v>
+        <v>-0.4244684421317222</v>
       </c>
       <c r="C44">
-        <v>0.2992973337008618</v>
+        <v>0.9371932577228552</v>
       </c>
       <c r="D44">
-        <v>0.2048283458883836</v>
+        <v>0.4078751556464382</v>
       </c>
       <c r="E44">
-        <v>0.1539539619333342</v>
+        <v>0.251896768831654</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1139,16 +1139,16 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>-0.5187896571846774</v>
+        <v>-0.02383050240772122</v>
       </c>
       <c r="C45">
-        <v>0.9354447461340727</v>
+        <v>0.05083591099157057</v>
       </c>
       <c r="D45">
-        <v>0.7920518765118724</v>
+        <v>0.03408494130957047</v>
       </c>
       <c r="E45">
-        <v>0.2523706060678003</v>
+        <v>0.02127565590995218</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1156,16 +1156,16 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>-0.294853298467345</v>
+        <v>-0.02672118068466434</v>
       </c>
       <c r="C46">
-        <v>0.603495182686846</v>
+        <v>0.04433606753594098</v>
       </c>
       <c r="D46">
-        <v>0.4869362273510322</v>
+        <v>0.041235782295932</v>
       </c>
       <c r="E46">
-        <v>0.1808167922890204</v>
+        <v>0.03186854764508679</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1173,16 +1173,16 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>-0.1298741560666211</v>
+        <v>-0.0027326278184057</v>
       </c>
       <c r="C47">
-        <v>0.2841809087002055</v>
+        <v>0.005479129830060225</v>
       </c>
       <c r="D47">
-        <v>0.2278941121871932</v>
+        <v>0.003999764804190223</v>
       </c>
       <c r="E47">
-        <v>0.07896340084000422</v>
+        <v>0.002380744263584715</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1190,16 +1190,16 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>-0.002565986914223314</v>
+        <v>-0.3950368533773362</v>
       </c>
       <c r="C48">
-        <v>0.004610919434723989</v>
+        <v>1.045939484095272</v>
       </c>
       <c r="D48">
-        <v>0.004062790475832486</v>
+        <v>0.4967036255409009</v>
       </c>
       <c r="E48">
-        <v>0.003288089077541403</v>
+        <v>0.02942566320881321</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1207,16 +1207,16 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>-0.5209325702382174</v>
+        <v>-0.132883344902451</v>
       </c>
       <c r="C49">
-        <v>1.079969756365263</v>
+        <v>0.2746231898728346</v>
       </c>
       <c r="D49">
-        <v>0.7623151681671487</v>
+        <v>0.2299361492609749</v>
       </c>
       <c r="E49">
-        <v>0.08802204348238582</v>
+        <v>0.1141826567640786</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1224,16 +1224,16 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>-0.1457068314589746</v>
+        <v>-0.4363072368843432</v>
       </c>
       <c r="C50">
-        <v>0.3018924862008738</v>
+        <v>1.081441796103947</v>
       </c>
       <c r="D50">
-        <v>0.2276085214240067</v>
+        <v>0.4256337247965451</v>
       </c>
       <c r="E50">
-        <v>0.1124491947475434</v>
+        <v>0.1522919267819164</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1241,16 +1241,16 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>-0.2124729422679943</v>
+        <v>-0.360363228909218</v>
       </c>
       <c r="C51">
-        <v>0.5560184155897686</v>
+        <v>0.7130239472990283</v>
       </c>
       <c r="D51">
-        <v>0.4188463793834865</v>
+        <v>0.5828013384202297</v>
       </c>
       <c r="E51">
-        <v>0.1051455710629869</v>
+        <v>0.1816818378013315</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1258,16 +1258,16 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>-0.1134522855003412</v>
+        <v>-0.4321351415787886</v>
       </c>
       <c r="C52">
-        <v>0.2986929645234789</v>
+        <v>0.8400701438173623</v>
       </c>
       <c r="D52">
-        <v>0.1712013441429466</v>
+        <v>0.6420897957635247</v>
       </c>
       <c r="E52">
-        <v>0.08839320878953014</v>
+        <v>0.2643995318990834</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1275,16 +1275,16 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>-0.4230899663447035</v>
+        <v>-0.3817754494544847</v>
       </c>
       <c r="C53">
-        <v>0.9858797585370785</v>
+        <v>0.8707519501275292</v>
       </c>
       <c r="D53">
-        <v>0.4698679642422917</v>
+        <v>0.4989528748096486</v>
       </c>
       <c r="E53">
-        <v>0.3508327069669492</v>
+        <v>0.1644230371789556</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1292,16 +1292,16 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>-0.4126948645231208</v>
+        <v>-0.02003918548915268</v>
       </c>
       <c r="C54">
-        <v>1.05053185222561</v>
+        <v>0.04114885991043157</v>
       </c>
       <c r="D54">
-        <v>0.6726153349303685</v>
+        <v>0.03108815334187412</v>
       </c>
       <c r="E54">
-        <v>0.02338505992667759</v>
+        <v>0.02942886701880916</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1309,16 +1309,16 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>-0.002308035902912535</v>
+        <v>-0.4295644017190138</v>
       </c>
       <c r="C55">
-        <v>0.004660022276409283</v>
+        <v>0.9263720379108147</v>
       </c>
       <c r="D55">
-        <v>0.003709426737727773</v>
+        <v>0.7341578214322636</v>
       </c>
       <c r="E55">
-        <v>0.002866953622367197</v>
+        <v>0.1299621954280508</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1326,16 +1326,16 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>-0.2808162703608197</v>
+        <v>-0.143134910287457</v>
       </c>
       <c r="C56">
-        <v>0.6435341133851682</v>
+        <v>0.2980753869866771</v>
       </c>
       <c r="D56">
-        <v>0.4737157963858364</v>
+        <v>0.2371192799293931</v>
       </c>
       <c r="E56">
-        <v>0.1071360257930721</v>
+        <v>0.09898926659994005</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1343,16 +1343,16 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>-0.5462041651998767</v>
+        <v>-0.2876772623260535</v>
       </c>
       <c r="C57">
-        <v>0.986801470616256</v>
+        <v>0.6625542165629958</v>
       </c>
       <c r="D57">
-        <v>0.9228378281351023</v>
+        <v>0.3696928763645125</v>
       </c>
       <c r="E57">
-        <v>0.05571000072517257</v>
+        <v>0.194566068966562</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1360,16 +1360,16 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>-0.6053974895486607</v>
+        <v>-0.475126001220922</v>
       </c>
       <c r="C58">
-        <v>1.099770962643837</v>
+        <v>0.9657300931254604</v>
       </c>
       <c r="D58">
-        <v>0.8034315966212227</v>
+        <v>0.7950960359989176</v>
       </c>
       <c r="E58">
-        <v>0.297028007360408</v>
+        <v>0.2689569255291968</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1377,16 +1377,16 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>-0.002837991071786802</v>
+        <v>-0.272496319129824</v>
       </c>
       <c r="C59">
-        <v>0.003949808920037804</v>
+        <v>0.6879223543404096</v>
       </c>
       <c r="D59">
-        <v>0.005340998129249477</v>
+        <v>0.5287549439639598</v>
       </c>
       <c r="E59">
-        <v>0.003101068770922332</v>
+        <v>0.09945074170367693</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1394,16 +1394,16 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>-0.1232992474753057</v>
+        <v>-0.02318648749591976</v>
       </c>
       <c r="C60">
-        <v>0.2518787458691276</v>
+        <v>0.04974457655335235</v>
       </c>
       <c r="D60">
-        <v>0.2085134161667993</v>
+        <v>0.0329858834795211</v>
       </c>
       <c r="E60">
-        <v>0.1556726895047764</v>
+        <v>0.02329063056940053</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1411,16 +1411,16 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>-0.121223691682267</v>
+        <v>-0.5332054419068588</v>
       </c>
       <c r="C61">
-        <v>0.2744078165556445</v>
+        <v>1.218374880430045</v>
       </c>
       <c r="D61">
-        <v>0.2049934549381942</v>
+        <v>0.728869876612764</v>
       </c>
       <c r="E61">
-        <v>0.112276199989393</v>
+        <v>-0.06792008010572149</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1428,16 +1428,16 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>-0.383605130346185</v>
+        <v>-0.002930810213817101</v>
       </c>
       <c r="C62">
-        <v>0.66497976236486</v>
+        <v>0.00499838584985837</v>
       </c>
       <c r="D62">
-        <v>0.5248336312392594</v>
+        <v>0.004774391141837826</v>
       </c>
       <c r="E62">
-        <v>0.259952111266443</v>
+        <v>0.00277473420926995</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1445,16 +1445,16 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>-0.3074581560675876</v>
+        <v>-0.662371119850651</v>
       </c>
       <c r="C63">
-        <v>0.5782428058682354</v>
+        <v>1.268016533075994</v>
       </c>
       <c r="D63">
-        <v>0.5392404328614587</v>
+        <v>0.9981949078946876</v>
       </c>
       <c r="E63">
-        <v>0.1515697082779413</v>
+        <v>0.01144177705011242</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1462,16 +1462,16 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>-0.3392861569522801</v>
+        <v>-0.3212338737145033</v>
       </c>
       <c r="C64">
-        <v>0.746470531761902</v>
+        <v>0.7161087048113935</v>
       </c>
       <c r="D64">
-        <v>0.5167128844104738</v>
+        <v>0.4312037428374885</v>
       </c>
       <c r="E64">
-        <v>0.1897563184278196</v>
+        <v>0.1221811533990685</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1479,16 +1479,16 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>-0.3063220196846339</v>
+        <v>-0.002468536010348175</v>
       </c>
       <c r="C65">
-        <v>0.7717964861234882</v>
+        <v>0.004590633167229232</v>
       </c>
       <c r="D65">
-        <v>0.4488493175622416</v>
+        <v>0.00410570222322282</v>
       </c>
       <c r="E65">
-        <v>0.1440096478486979</v>
+        <v>0.002966527728875771</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1496,16 +1496,16 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>-0.002792386964748999</v>
+        <v>-0.1380537778219007</v>
       </c>
       <c r="C66">
-        <v>0.004811062287357335</v>
+        <v>0.2955216341062495</v>
       </c>
       <c r="D66">
-        <v>0.004099377168090248</v>
+        <v>0.215155294760014</v>
       </c>
       <c r="E66">
-        <v>0.003594066160131868</v>
+        <v>0.1317158452604328</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1513,16 +1513,16 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>-0.002374440062678571</v>
+        <v>-0.001763424167704415</v>
       </c>
       <c r="C67">
-        <v>0.004503814119921992</v>
+        <v>0.003713537674831777</v>
       </c>
       <c r="D67">
-        <v>0.004054785179436074</v>
+        <v>0.00380852330363148</v>
       </c>
       <c r="E67">
-        <v>0.002859894375503459</v>
+        <v>0.002265430856644352</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1530,16 +1530,16 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>-0.3486673850612412</v>
+        <v>-0.002197823846427552</v>
       </c>
       <c r="C68">
-        <v>0.7322752533946919</v>
+        <v>0.004540786046676032</v>
       </c>
       <c r="D68">
-        <v>0.5610830756532181</v>
+        <v>0.003775087621733387</v>
       </c>
       <c r="E68">
-        <v>0.1976684125430537</v>
+        <v>0.00259695862503714</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1547,16 +1547,16 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>-0.6105199978487132</v>
+        <v>-0.1422252772192236</v>
       </c>
       <c r="C69">
-        <v>1.155448090802374</v>
+        <v>0.2978573372371758</v>
       </c>
       <c r="D69">
-        <v>0.8561149569118026</v>
+        <v>0.1873315506074927</v>
       </c>
       <c r="E69">
-        <v>0.2149529631669918</v>
+        <v>0.1617982328435763</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1564,16 +1564,16 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>-0.2998184276154801</v>
+        <v>-0.002316336665732391</v>
       </c>
       <c r="C70">
-        <v>0.5950727880756504</v>
+        <v>0.004676622113630577</v>
       </c>
       <c r="D70">
-        <v>0.4973502219928439</v>
+        <v>0.004110277966413303</v>
       </c>
       <c r="E70">
-        <v>0.1877916975580996</v>
+        <v>0.002249123900627511</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1581,16 +1581,16 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>-0.1650210912503374</v>
+        <v>-0.002224527436731841</v>
       </c>
       <c r="C71">
-        <v>0.2796409580707833</v>
+        <v>0.004139691139075947</v>
       </c>
       <c r="D71">
-        <v>0.2735267976985806</v>
+        <v>0.00426472801728657</v>
       </c>
       <c r="E71">
-        <v>0.1301270829911098</v>
+        <v>0.002608105564602884</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1598,16 +1598,16 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>-0.1328423037511624</v>
+        <v>-0.1151972818208537</v>
       </c>
       <c r="C72">
-        <v>0.2934967205885333</v>
+        <v>0.234396697795056</v>
       </c>
       <c r="D72">
-        <v>0.1918323862872908</v>
+        <v>0.2153943560636871</v>
       </c>
       <c r="E72">
-        <v>0.1427090933033875</v>
+        <v>0.144118986658704</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1615,16 +1615,16 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>-0.1448373590056129</v>
+        <v>-0.5529354739564303</v>
       </c>
       <c r="C73">
-        <v>0.3028172182321992</v>
+        <v>1.05996581475104</v>
       </c>
       <c r="D73">
-        <v>0.2012346076473322</v>
+        <v>0.7295536199982939</v>
       </c>
       <c r="E73">
-        <v>0.1360426775148615</v>
+        <v>0.2114884580157302</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1632,16 +1632,16 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>-0.002965583347153658</v>
+        <v>-0.4256715654485619</v>
       </c>
       <c r="C74">
-        <v>0.004394506048056083</v>
+        <v>0.9576234618610648</v>
       </c>
       <c r="D74">
-        <v>0.005111633770290332</v>
+        <v>0.7347549607534336</v>
       </c>
       <c r="E74">
-        <v>0.003254308029458195</v>
+        <v>0.04225454081802519</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1649,16 +1649,16 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>-0.1461526024271844</v>
+        <v>-0.383498787658021</v>
       </c>
       <c r="C75">
-        <v>0.3136149329704546</v>
+        <v>0.63365236363766</v>
       </c>
       <c r="D75">
-        <v>0.2205934291575699</v>
+        <v>0.6378336543558139</v>
       </c>
       <c r="E75">
-        <v>0.09272622687065811</v>
+        <v>0.1535368217162072</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1666,16 +1666,16 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>-0.003261252102079176</v>
+        <v>-0.01864036997020267</v>
       </c>
       <c r="C76">
-        <v>0.004956317919852029</v>
+        <v>0.04068356996900674</v>
       </c>
       <c r="D76">
-        <v>0.005002154677633494</v>
+        <v>0.03071760875219196</v>
       </c>
       <c r="E76">
-        <v>0.003484653511289796</v>
+        <v>0.02647406769999146</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1683,16 +1683,16 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>-0.4739906996289512</v>
+        <v>-0.1513117368080572</v>
       </c>
       <c r="C77">
-        <v>0.8070125995888445</v>
+        <v>0.2938375306197281</v>
       </c>
       <c r="D77">
-        <v>0.9109191700628944</v>
+        <v>0.2251924588407135</v>
       </c>
       <c r="E77">
-        <v>0.1867385762026575</v>
+        <v>0.1455395802058602</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1700,16 +1700,16 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>-0.002580230486176981</v>
+        <v>-0.1622886835929525</v>
       </c>
       <c r="C78">
-        <v>0.004312955474816475</v>
+        <v>0.3254490135087464</v>
       </c>
       <c r="D78">
-        <v>0.004247035139704631</v>
+        <v>0.2070234014364301</v>
       </c>
       <c r="E78">
-        <v>0.003493428435498307</v>
+        <v>0.146961945222456</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1717,16 +1717,16 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>-0.6382774565473823</v>
+        <v>-0.02439974806776863</v>
       </c>
       <c r="C79">
-        <v>0.8356767900642939</v>
+        <v>0.04395029295007404</v>
       </c>
       <c r="D79">
-        <v>1.224597953840318</v>
+        <v>0.03988309653810271</v>
       </c>
       <c r="E79">
-        <v>0.057347773144529</v>
+        <v>0.0276275007902372</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1734,16 +1734,16 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>-0.002640487464989833</v>
+        <v>-0.002602977392939796</v>
       </c>
       <c r="C80">
-        <v>0.004120874953561425</v>
+        <v>0.00497336330532831</v>
       </c>
       <c r="D80">
-        <v>0.00479017496951152</v>
+        <v>0.004104971088623365</v>
       </c>
       <c r="E80">
-        <v>0.003172867203580288</v>
+        <v>0.002776218266660323</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1751,16 +1751,16 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>-0.2791507125805702</v>
+        <v>-0.1990220736190083</v>
       </c>
       <c r="C81">
-        <v>0.5692488398673403</v>
+        <v>0.3106039473886762</v>
       </c>
       <c r="D81">
-        <v>0.4384349434864461</v>
+        <v>0.2499640738537003</v>
       </c>
       <c r="E81">
-        <v>0.2803670006614691</v>
+        <v>0.2028235757237579</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1768,16 +1768,16 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>-0.4653702495980381</v>
+        <v>-0.4354432278772395</v>
       </c>
       <c r="C82">
-        <v>1.011914417245757</v>
+        <v>0.8484215000720416</v>
       </c>
       <c r="D82">
-        <v>0.882869574264606</v>
+        <v>0.5710020448934932</v>
       </c>
       <c r="E82">
-        <v>-0.009711247577950442</v>
+        <v>0.2295937571895161</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1785,16 +1785,16 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>-0.2660921955055294</v>
+        <v>-0.002972355407102105</v>
       </c>
       <c r="C83">
-        <v>0.5732780046313373</v>
+        <v>0.005179923396576966</v>
       </c>
       <c r="D83">
-        <v>0.4900795473752755</v>
+        <v>0.0044645782887324</v>
       </c>
       <c r="E83">
-        <v>0.1473557268698816</v>
+        <v>0.003083637852248273</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1802,16 +1802,16 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>-0.3281394936623739</v>
+        <v>-0.002469541327027019</v>
       </c>
       <c r="C84">
-        <v>0.665975721280044</v>
+        <v>0.004488257156317513</v>
       </c>
       <c r="D84">
-        <v>0.4893101765905633</v>
+        <v>0.004387609177147655</v>
       </c>
       <c r="E84">
-        <v>0.2078407230484786</v>
+        <v>0.002684496773439871</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1819,16 +1819,16 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>-0.2592248706853628</v>
+        <v>-0.4374146411788047</v>
       </c>
       <c r="C85">
-        <v>0.5707543362824609</v>
+        <v>0.9293267680822338</v>
       </c>
       <c r="D85">
-        <v>0.4402663956632546</v>
+        <v>0.550661088612609</v>
       </c>
       <c r="E85">
-        <v>0.1978379751574055</v>
+        <v>0.2210960925822831</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -1836,16 +1836,16 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>-0.2414095877043697</v>
+        <v>-0.4197171417310849</v>
       </c>
       <c r="C86">
-        <v>0.5881528857755042</v>
+        <v>0.8656675894063831</v>
       </c>
       <c r="D86">
-        <v>0.4439480800096026</v>
+        <v>0.712617913801173</v>
       </c>
       <c r="E86">
-        <v>0.05717426742576145</v>
+        <v>0.1286796278240721</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -1853,16 +1853,16 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>-0.002921939193519275</v>
+        <v>-0.1475798208849962</v>
       </c>
       <c r="C87">
-        <v>0.005195147781189316</v>
+        <v>0.325393378610738</v>
       </c>
       <c r="D87">
-        <v>0.004405208464303917</v>
+        <v>0.1838401066413116</v>
       </c>
       <c r="E87">
-        <v>0.002974995898542109</v>
+        <v>0.132049206159016</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -1870,16 +1870,16 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>-0.02664765237715242</v>
+        <v>-0.1278230251474267</v>
       </c>
       <c r="C88">
-        <v>0.04969033745027861</v>
+        <v>0.2943742356458911</v>
       </c>
       <c r="D88">
-        <v>0.03837244519416692</v>
+        <v>0.1943441578718905</v>
       </c>
       <c r="E88">
-        <v>0.02746925514712101</v>
+        <v>0.1250513268730249</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -1887,16 +1887,16 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>-0.2739998438136619</v>
+        <v>-0.3121193187939807</v>
       </c>
       <c r="C89">
-        <v>0.5386087893897942</v>
+        <v>0.5822447031899791</v>
       </c>
       <c r="D89">
-        <v>0.5274837423528539</v>
+        <v>0.4682851171489754</v>
       </c>
       <c r="E89">
-        <v>0.1462271092332113</v>
+        <v>0.2244529401073131</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -1904,16 +1904,16 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>-0.2697684076605774</v>
+        <v>-0.3045568853477732</v>
       </c>
       <c r="C90">
-        <v>0.6189608545573092</v>
+        <v>0.5943581592637519</v>
       </c>
       <c r="D90">
-        <v>0.4444692726081936</v>
+        <v>0.4891383587444907</v>
       </c>
       <c r="E90">
-        <v>0.1293009683979437</v>
+        <v>0.1754082939169737</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -1921,16 +1921,16 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>-0.02127252535420635</v>
+        <v>-0.003074702566459659</v>
       </c>
       <c r="C91">
-        <v>0.04339949382454632</v>
+        <v>0.005209656182016677</v>
       </c>
       <c r="D91">
-        <v>0.03653029456242878</v>
+        <v>0.004370581627408525</v>
       </c>
       <c r="E91">
-        <v>0.02299776025081815</v>
+        <v>0.00345750716568638</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -1938,16 +1938,16 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>-0.002744765213602444</v>
+        <v>-0.002153052860166517</v>
       </c>
       <c r="C92">
-        <v>0.005028382362177166</v>
+        <v>0.004137033147244703</v>
       </c>
       <c r="D92">
-        <v>0.004036953518032222</v>
+        <v>0.004000788933774494</v>
       </c>
       <c r="E92">
-        <v>0.003225991462889016</v>
+        <v>0.002729992158040079</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -1955,16 +1955,16 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>-0.002351407464945271</v>
+        <v>-0.4153403215676411</v>
       </c>
       <c r="C93">
-        <v>0.00494202530538706</v>
+        <v>1.041765280289412</v>
       </c>
       <c r="D93">
-        <v>0.003848207423121384</v>
+        <v>0.611933009299953</v>
       </c>
       <c r="E93">
-        <v>0.002304534676434521</v>
+        <v>0.106523728670797</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -1972,16 +1972,16 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>-0.02247563112840977</v>
+        <v>-0.3721643698625918</v>
       </c>
       <c r="C94">
-        <v>0.04641308071212567</v>
+        <v>0.835661222794303</v>
       </c>
       <c r="D94">
-        <v>0.03452000721387397</v>
+        <v>0.6108164677847386</v>
       </c>
       <c r="E94">
-        <v>0.02511422772600969</v>
+        <v>0.07538773477112094</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -1989,16 +1989,16 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>-0.5270575739724542</v>
+        <v>-0.002719899361899307</v>
       </c>
       <c r="C95">
-        <v>1.040634090845031</v>
+        <v>0.004376971967059684</v>
       </c>
       <c r="D95">
-        <v>0.8366175625070986</v>
+        <v>0.004674578843993765</v>
       </c>
       <c r="E95">
-        <v>-0.001904639052199173</v>
+        <v>0.003237769588635408</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2006,16 +2006,16 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>-0.416895924851367</v>
+        <v>-0.3234878860378043</v>
       </c>
       <c r="C96">
-        <v>0.8982994327623304</v>
+        <v>0.6562644613667445</v>
       </c>
       <c r="D96">
-        <v>0.7287457793738111</v>
+        <v>0.4138527955466768</v>
       </c>
       <c r="E96">
-        <v>0.1250500782262239</v>
+        <v>0.2230097966500498</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2023,16 +2023,16 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>-0.2599536178132576</v>
+        <v>-0.4317141752626088</v>
       </c>
       <c r="C97">
-        <v>0.6113533080714029</v>
+        <v>0.9313553805861001</v>
       </c>
       <c r="D97">
-        <v>0.4390531539415805</v>
+        <v>0.6748986824758553</v>
       </c>
       <c r="E97">
-        <v>0.2398439178210548</v>
+        <v>0.1796345458164179</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2040,16 +2040,16 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>-0.2986342889117232</v>
+        <v>-0.4756829726504604</v>
       </c>
       <c r="C98">
-        <v>0.7181344448542647</v>
+        <v>1.005972746821778</v>
       </c>
       <c r="D98">
-        <v>0.6872759175213333</v>
+        <v>0.5753386312494083</v>
       </c>
       <c r="E98">
-        <v>0.09462807835960813</v>
+        <v>0.4162604558690004</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2057,16 +2057,16 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>-0.2505948895789928</v>
+        <v>-0.1509562761062231</v>
       </c>
       <c r="C99">
-        <v>0.6127933052658208</v>
+        <v>0.3018744799660896</v>
       </c>
       <c r="D99">
-        <v>0.3939479083197077</v>
+        <v>0.1975079446197484</v>
       </c>
       <c r="E99">
-        <v>0.1372173343068421</v>
+        <v>0.1688125506727086</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2074,16 +2074,16 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>-0.3787399316294003</v>
+        <v>-0.002468652137670323</v>
       </c>
       <c r="C100">
-        <v>0.677897750732702</v>
+        <v>0.004641939130864993</v>
       </c>
       <c r="D100">
-        <v>0.5947352088557583</v>
+        <v>0.00426400753436522</v>
       </c>
       <c r="E100">
-        <v>0.1212547066469826</v>
+        <v>0.002645984922197113</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2091,16 +2091,16 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>-0.002475403968851225</v>
+        <v>-0.02194023836756285</v>
       </c>
       <c r="C101">
-        <v>0.004766629457582538</v>
+        <v>0.03818472019787827</v>
       </c>
       <c r="D101">
-        <v>0.004073520535446074</v>
+        <v>0.04159758511897833</v>
       </c>
       <c r="E101">
-        <v>0.002749408631633726</v>
+        <v>0.02599820664240328</v>
       </c>
     </row>
   </sheetData>
